--- a/backend/projects/project-a-123-sunset-blvd/data/19_MONTHLY_CLOSE/2024-09-Close/Balance_Sheet_September_2024.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/19_MONTHLY_CLOSE/2024-09-Close/Balance_Sheet_September_2024.xlsx
@@ -459,19 +459,12 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>ASSETS</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -479,8 +472,6 @@
           <t>Current Assets:</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,25 +531,17 @@
           <t>Total Current Assets</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" s="2">
         <f>SUM(C8:C11)</f>
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
           <t>Non-Current Assets:</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -605,42 +588,28 @@
           <t>Total Non-Current Assets</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" s="2">
         <f>SUM(C15:C17)</f>
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" s="2">
         <f>C12+C18</f>
         <v/>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
           <t>LIABILITIES</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -648,8 +617,6 @@
           <t>Current Liabilities:</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -696,25 +663,17 @@
           <t>Total Current Liabilities</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" s="2">
         <f>SUM(C24:C26)</f>
         <v/>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-    </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
           <t>Long-Term Liabilities:</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -735,17 +694,11 @@
           <t>Total Long-Term Liabilities</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
           <t>C30</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -753,25 +706,17 @@
           <t>TOTAL LIABILITIES</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" s="2">
         <f>C27+C31</f>
         <v/>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-    </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
           <t>EQUITY</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -819,46 +764,30 @@
           <t>TOTAL EQUITY</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" s="2">
         <f>SUM(C37:C39)</f>
         <v/>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-    </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
           <t>TOTAL LIABILITIES &amp; EQUITY</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" s="2">
         <f>C33+C40</f>
         <v/>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-    </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
           <t>Balance Check:</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" s="2">
         <f>IF(C20=C42,"✓ BALANCED","✗ OUT OF BALANCE")</f>
         <v/>
